--- a/doc/04_DB定義書_ハイドレンジア.xlsx
+++ b/doc/04_DB定義書_ハイドレンジア.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\b3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86086F99-8F2C-456F-B75B-B28D78B4483D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C70575-CFBF-4FD6-A00A-85CEFBED78AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="198">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -727,6 +727,111 @@
   </si>
   <si>
     <t>remarks_position</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリーワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>席</t>
+    <rPh sb="0" eb="1">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たばこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社からの距離</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ飲み放題</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開店時間</t>
+    <rPh sb="0" eb="4">
+      <t>カイテンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉店時間</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイテンジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>freeword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <rPh sb="0" eb="2">
+      <t>ニンズウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>capacity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tabaco</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>distance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eat_drink</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time型を利用</t>
+    <rPh sb="4" eb="5">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2081,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA2485A-0608-4F92-A2B9-D5A614266ABD}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4511,7 +4616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6B8BCD-1976-4010-9444-FAC19430C141}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -5523,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677AC28A-06AD-4889-8C72-D3419D108B72}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5713,10 +5818,18 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -5727,9 +5840,15 @@
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5741,9 +5860,15 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5755,10 +5880,18 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -5769,9 +5902,15 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5783,10 +5922,18 @@
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5797,9 +5944,15 @@
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5808,61 +5961,84 @@
       <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v>distance int ,</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>eat_drink varchar (10),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>open time ,</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">close time </v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">

--- a/doc/04_DB定義書_ハイドレンジア.xlsx
+++ b/doc/04_DB定義書_ハイドレンジア.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C70575-CFBF-4FD6-A00A-85CEFBED78AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F5CDC3-2C10-4B2E-933B-250EC47CDC5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="430" yWindow="100" windowWidth="18110" windowHeight="10080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="user" sheetId="2" r:id="rId2"/>
-    <sheet name="shop" sheetId="5" r:id="rId3"/>
-    <sheet name="appointment" sheetId="7" r:id="rId4"/>
-    <sheet name="message" sheetId="8" r:id="rId5"/>
-    <sheet name="memo" sheetId="9" r:id="rId6"/>
-    <sheet name="position_memo" sheetId="10" r:id="rId7"/>
-    <sheet name="admin_message" sheetId="11" r:id="rId8"/>
-    <sheet name="preset" sheetId="12" r:id="rId9"/>
+    <sheet name="users" sheetId="2" r:id="rId2"/>
+    <sheet name="shops" sheetId="5" r:id="rId3"/>
+    <sheet name="appointments" sheetId="7" r:id="rId4"/>
+    <sheet name="messages" sheetId="8" r:id="rId5"/>
+    <sheet name="memos" sheetId="9" r:id="rId6"/>
+    <sheet name="position_memos" sheetId="10" r:id="rId7"/>
+    <sheet name="admin_messages" sheetId="11" r:id="rId8"/>
+    <sheet name="presets" sheetId="12" r:id="rId9"/>
+    <sheet name="scores" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="213">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -225,325 +226,285 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>appointment</t>
-    <phoneticPr fontId="1"/>
+    <t>テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>ユーザー氏名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>店ID</t>
+  </si>
+  <si>
+    <t>店名</t>
+  </si>
+  <si>
+    <t>shop_name</t>
+  </si>
+  <si>
+    <t>ジャンル</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>genre_form</t>
+  </si>
+  <si>
+    <t>価格帯(大)</t>
+  </si>
+  <si>
+    <t>price_max</t>
+  </si>
+  <si>
+    <t>価格帯(小)</t>
+  </si>
+  <si>
+    <t>price_min</t>
+  </si>
+  <si>
+    <t>平日OPEN</t>
+  </si>
+  <si>
+    <t>open_hei</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>平日CLOSE</t>
+  </si>
+  <si>
+    <t>close_hei</t>
+  </si>
+  <si>
+    <t>休日OPEN</t>
+  </si>
+  <si>
+    <t>open_kyu</t>
+  </si>
+  <si>
+    <t>休日CLOSE</t>
+  </si>
+  <si>
+    <t>close_kyu</t>
+  </si>
+  <si>
+    <t>休業日(月)</t>
+  </si>
+  <si>
+    <t>holiday_mon</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>休業日(火)</t>
+  </si>
+  <si>
+    <t>holiday_tue</t>
+  </si>
+  <si>
+    <t>休業日(水)</t>
+  </si>
+  <si>
+    <t>holiday_wed</t>
+  </si>
+  <si>
+    <t>休業日(木)</t>
+  </si>
+  <si>
+    <t>holiday_thu</t>
+  </si>
+  <si>
+    <t>休業日(金)</t>
+  </si>
+  <si>
+    <t>holiday_fri</t>
+  </si>
+  <si>
+    <t>休業日(土)</t>
+  </si>
+  <si>
+    <t>holiday_sat</t>
+  </si>
+  <si>
+    <t>休業日(日)</t>
+  </si>
+  <si>
+    <t>holiday_sun</t>
+  </si>
+  <si>
+    <t>休業日(祝日)</t>
+  </si>
+  <si>
+    <t>holiday_syuku</t>
+  </si>
+  <si>
+    <t>休業日(年末年始)</t>
+  </si>
+  <si>
+    <t>holiday_nenmatsu</t>
+  </si>
+  <si>
+    <t>会社からの距離</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>喫煙</t>
+  </si>
+  <si>
+    <t>tabaco</t>
+  </si>
+  <si>
+    <t>座席(テーブル)</t>
+  </si>
+  <si>
+    <t>sheet_table</t>
+  </si>
+  <si>
+    <t>座席(座敷)</t>
+  </si>
+  <si>
+    <t>sheet_tatami</t>
+  </si>
+  <si>
+    <t>座席(その他)</t>
+  </si>
+  <si>
+    <t>sheet_other</t>
+  </si>
+  <si>
+    <t>規模</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>飲食放題</t>
+  </si>
+  <si>
+    <t>eat_drink</t>
+  </si>
+  <si>
+    <t>評価</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>ホームページ</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>その他連絡先</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>remarks_shop</t>
+  </si>
+  <si>
+    <t>予約ID</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>人数</t>
   </si>
   <si>
     <t>message</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージID</t>
+  </si>
+  <si>
+    <t>件名</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>内容</t>
   </si>
   <si>
     <t>memo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>position_memo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>ユーザー氏名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>varchar</t>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>店ID</t>
-  </si>
-  <si>
-    <t>店名</t>
-  </si>
-  <si>
-    <t>shop_name</t>
-  </si>
-  <si>
-    <t>ジャンル</t>
-  </si>
-  <si>
-    <t>genre</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>genre_form</t>
-  </si>
-  <si>
-    <t>価格帯(大)</t>
-  </si>
-  <si>
-    <t>price_max</t>
-  </si>
-  <si>
-    <t>価格帯(小)</t>
-  </si>
-  <si>
-    <t>price_min</t>
-  </si>
-  <si>
-    <t>平日OPEN</t>
-  </si>
-  <si>
-    <t>open_hei</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>平日CLOSE</t>
-  </si>
-  <si>
-    <t>close_hei</t>
-  </si>
-  <si>
-    <t>休日OPEN</t>
-  </si>
-  <si>
-    <t>open_kyu</t>
-  </si>
-  <si>
-    <t>休日CLOSE</t>
-  </si>
-  <si>
-    <t>close_kyu</t>
-  </si>
-  <si>
-    <t>休業日(月)</t>
-  </si>
-  <si>
-    <t>holiday_mon</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>休業日(火)</t>
-  </si>
-  <si>
-    <t>holiday_tue</t>
-  </si>
-  <si>
-    <t>休業日(水)</t>
-  </si>
-  <si>
-    <t>holiday_wed</t>
-  </si>
-  <si>
-    <t>休業日(木)</t>
-  </si>
-  <si>
-    <t>holiday_thu</t>
-  </si>
-  <si>
-    <t>休業日(金)</t>
-  </si>
-  <si>
-    <t>holiday_fri</t>
-  </si>
-  <si>
-    <t>休業日(土)</t>
-  </si>
-  <si>
-    <t>holiday_sat</t>
-  </si>
-  <si>
-    <t>休業日(日)</t>
-  </si>
-  <si>
-    <t>holiday_sun</t>
-  </si>
-  <si>
-    <t>休業日(祝日)</t>
-  </si>
-  <si>
-    <t>holiday_syuku</t>
-  </si>
-  <si>
-    <t>休業日(年末年始)</t>
-  </si>
-  <si>
-    <t>holiday_nenmatsu</t>
-  </si>
-  <si>
-    <t>会社からの距離</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>喫煙</t>
-  </si>
-  <si>
-    <t>tabaco</t>
-  </si>
-  <si>
-    <t>座席(テーブル)</t>
-  </si>
-  <si>
-    <t>sheet_table</t>
-  </si>
-  <si>
-    <t>座席(座敷)</t>
-  </si>
-  <si>
-    <t>sheet_tatami</t>
-  </si>
-  <si>
-    <t>座席(その他)</t>
-  </si>
-  <si>
-    <t>sheet_other</t>
-  </si>
-  <si>
-    <t>規模</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>飲食放題</t>
-  </si>
-  <si>
-    <t>eat_drink</t>
-  </si>
-  <si>
-    <t>評価</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>ホームページ</t>
-  </si>
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
-    <t>その他連絡先</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>画像</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>remarks_shop</t>
-  </si>
-  <si>
-    <t>更新日</t>
-  </si>
-  <si>
-    <t>deta_update</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>メールアドレスas更新者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約ID</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>時間</t>
-  </si>
-  <si>
-    <t>部署</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>メッセージID</t>
-  </si>
-  <si>
-    <t>件名</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>memo</t>
   </si>
   <si>
     <t>メモID</t>
@@ -556,9 +517,6 @@
   </si>
   <si>
     <t>メモ内容</t>
-  </si>
-  <si>
-    <t>position_memo</t>
   </si>
   <si>
     <t>役職メモID</t>
@@ -629,10 +587,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shop_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>people</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -652,10 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>admin_message</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -682,9 +632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>preset</t>
-  </si>
-  <si>
     <t>プリセットID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -711,10 +658,6 @@
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>preset</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -832,6 +775,157 @@
     <rPh sb="6" eb="8">
       <t>リヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shops</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appointments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>messages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position_memos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_messages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>presets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小森天恵</t>
+    <rPh sb="0" eb="2">
+      <t>コモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apointment_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apointment_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shopテーブルと紐づけ</t>
+    <rPh sb="9" eb="10">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userテーブルと紐づけ</t>
+    <rPh sb="9" eb="10">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID as更新者</t>
+    <rPh sb="9" eb="12">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scores</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店ID</t>
+    <rPh sb="0" eb="1">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_shops</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_appointments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_messages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_memos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_position_memos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_admin_messages</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_presets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id_scores</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,7 +973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -915,13 +1009,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +1058,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,7 +1409,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1332,13 +1454,17 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -1365,10 +1491,10 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -1380,10 +1506,10 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1395,10 +1521,10 @@
         <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -1410,10 +1536,10 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1425,10 +1551,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1440,10 +1566,10 @@
         <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -1452,13 +1578,13 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -1467,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -1481,9 +1607,15 @@
       <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1688,6 +1820,437 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B265D11B-724D-4104-B0DB-FD2CF475A57C}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" customWidth="1"/>
+    <col min="10" max="11" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1696,7 +2259,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1751,19 +2314,23 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1802,23 +2369,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -1829,10 +2396,15 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1844,11 +2416,15 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1861,13 +2437,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3">
         <v>20</v>
@@ -1875,7 +2451,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1885,13 +2461,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -1899,7 +2475,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1909,13 +2485,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E15" s="3">
         <v>20</v>
@@ -1930,10 +2506,18 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2186,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA2485A-0608-4F92-A2B9-D5A614266ABD}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2205,7 +2789,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2242,19 +2826,23 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2293,23 +2881,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2320,11 +2908,15 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2336,11 +2928,15 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2353,13 +2949,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3">
         <v>30</v>
@@ -2367,7 +2963,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2377,13 +2973,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>30</v>
@@ -2391,7 +2987,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2401,13 +2997,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>30</v>
@@ -2415,7 +3011,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2425,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2447,13 +3043,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2469,13 +3065,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2489,13 +3085,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2509,13 +3105,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2529,13 +3125,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -2549,13 +3145,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2569,13 +3165,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -2589,13 +3185,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2609,13 +3205,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2629,13 +3225,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2649,13 +3245,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2669,13 +3265,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -2689,13 +3285,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2709,13 +3305,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2729,13 +3325,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E31" s="3">
         <v>10</v>
@@ -2751,13 +3347,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2773,13 +3369,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3">
         <v>50</v>
@@ -2795,13 +3391,13 @@
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E34" s="3">
         <v>5</v>
@@ -2817,13 +3413,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2837,13 +3433,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2857,13 +3453,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E37" s="3">
         <v>10</v>
@@ -2879,13 +3475,13 @@
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2901,13 +3497,13 @@
         <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E39" s="3">
         <v>10</v>
@@ -2923,13 +3519,13 @@
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2945,13 +3541,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E41" s="3">
         <v>20</v>
@@ -2967,13 +3563,13 @@
         <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
@@ -2989,13 +3585,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3011,13 +3607,13 @@
         <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E44" s="3">
         <v>50</v>
@@ -3033,13 +3629,13 @@
         <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -3051,46 +3647,38 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="7">
         <v>37</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>115</v>
+      <c r="B46" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>38</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="3">
-        <v>20</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3103,7 +3691,541 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049EC5FA-41E0-48D5-BD08-4156C1F58DF0}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>200</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="e">
+        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF0116E-AE75-473E-BC12-1DBB57515E56}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3122,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3154,24 +4276,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3210,23 +4336,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -3237,11 +4363,15 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3253,11 +4383,15 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3270,21 +4404,18 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -3294,41 +4425,43 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3338,21 +4471,21 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3361,23 +4494,13 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
@@ -3385,50 +4508,36 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="3">
-        <v>200</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -3444,9 +4553,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -3463,7 +4572,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" ref="L21:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3623,11 +4732,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF0116E-AE75-473E-BC12-1DBB57515E56}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F4C3BC-F687-42DC-A22E-3E8CF91308DA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3644,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3676,24 +4787,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3732,23 +4847,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -3759,76 +4874,83 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>120</v>
+      <c r="B13" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
@@ -3837,22 +4959,20 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
@@ -3860,23 +4980,13 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
-        <v>200</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
@@ -3893,6 +5003,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -3908,7 +5022,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4122,11 +5236,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F4C3BC-F687-42DC-A22E-3E8CF91308DA}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6B8BCD-1976-4010-9444-FAC19430C141}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4143,7 +5259,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4175,24 +5291,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4231,23 +5351,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -4258,11 +5378,15 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -4274,11 +5398,15 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -4290,36 +5418,36 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="6">
-        <v>20</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
         <v>20</v>
@@ -4335,16 +5463,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4356,10 +5484,18 @@
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4370,73 +5506,89 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3">
+        <v>20</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -4452,7 +5604,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L21:L29" si="0">C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4612,12 +5764,516 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6B8BCD-1976-4010-9444-FAC19430C141}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91F6FB5-C1E9-4390-83D2-699C9BA706C4}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="3">
+        <v>500</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C14&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>information_subtitle  ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f>C15&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>information_photo  ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f>C16&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">information  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23:L29" si="0">C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677AC28A-06AD-4889-8C72-D3419D108B72}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="89" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4659,7 +6315,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45086</v>
+        <v>45089</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -4667,24 +6323,28 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45090</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4723,23 +6383,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -4750,11 +6410,15 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -4766,11 +6430,15 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -4783,20 +6451,22 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>160</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
@@ -4805,16 +6475,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4827,17 +6497,15 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3">
-        <v>10</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -4849,17 +6517,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4871,16 +6537,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4893,17 +6559,15 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -4915,16 +6579,16 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4937,17 +6601,15 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -4955,79 +6617,110 @@
       <c r="J20" s="3"/>
       <c r="L20" t="str">
         <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>remarks_position varchar (20)</v>
+        <v>distance int ,</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
       <c r="L21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>eat_drink varchar (10),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>open time ,</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>close time ,</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">id_users int </v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -5130,1033 +6823,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91F6FB5-C1E9-4390-83D2-699C9BA706C4}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="3">
-        <v>50</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="3">
-        <v>500</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f>C14&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>information_subtitle  ,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f>C15&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>information_photo  ,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f>C16&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">information  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" ref="L23:L29" si="0">C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677AC28A-06AD-4889-8C72-D3419D108B72}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45089</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="3">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" ref="L20:L29" si="0">C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>distance int ,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="3">
-        <v>10</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v>eat_drink varchar (10),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v>open time ,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">close time </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>